--- a/uploaded_files/fyp_projects.xlsx
+++ b/uploaded_files/fyp_projects.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FYP\sce\adhoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fyp\uploaded_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903BF5C6-8039-4ADB-A1CB-F875EC93F8CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="11340" windowHeight="6795"/>
+    <workbookView xWindow="366" yWindow="11" windowWidth="11343" windowHeight="6790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15063" uniqueCount="4524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15063" uniqueCount="4525">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -13633,11 +13634,14 @@
 --and t.FYP_SEM_OFF = '1'
 order by 4,5,1</t>
   </si>
+  <si>
+    <t>A S Madhuk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -13966,7 +13970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -13974,27 +13978,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="2" customWidth="1"/>
     <col min="8" max="8" width="25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="50.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.69921875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="50.296875" style="2" customWidth="1"/>
     <col min="14" max="17" width="29" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14047,7 +14051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -14067,7 +14071,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>4524</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>23</v>
@@ -14100,7 +14104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -14153,7 +14157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -14206,7 +14210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -14259,7 +14263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -14365,7 +14369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -14471,7 +14475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
@@ -14524,7 +14528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>99</v>
       </c>
@@ -14577,7 +14581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>105</v>
       </c>
@@ -14630,7 +14634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
@@ -14683,7 +14687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>123</v>
       </c>
@@ -14736,7 +14740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>128</v>
       </c>
@@ -14789,7 +14793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>135</v>
       </c>
@@ -14842,7 +14846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
@@ -14895,7 +14899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>149</v>
       </c>
@@ -14948,7 +14952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>157</v>
       </c>
@@ -15001,7 +15005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>163</v>
       </c>
@@ -15054,7 +15058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>169</v>
       </c>
@@ -15107,7 +15111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>176</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>181</v>
       </c>
@@ -15213,7 +15217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>188</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>193</v>
       </c>
@@ -15319,7 +15323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>200</v>
       </c>
@@ -15372,7 +15376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>205</v>
       </c>
@@ -15425,7 +15429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>210</v>
       </c>
@@ -15478,7 +15482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>220</v>
       </c>
@@ -15531,7 +15535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>228</v>
       </c>
@@ -15584,7 +15588,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>239</v>
       </c>
@@ -15637,7 +15641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>246</v>
       </c>
@@ -15690,7 +15694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>253</v>
       </c>
@@ -15743,7 +15747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>260</v>
       </c>
@@ -15796,7 +15800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>265</v>
       </c>
@@ -15849,7 +15853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>272</v>
       </c>
@@ -15902,7 +15906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>279</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>284</v>
       </c>
@@ -16008,7 +16012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>289</v>
       </c>
@@ -16061,7 +16065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>296</v>
       </c>
@@ -16114,7 +16118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>301</v>
       </c>
@@ -16167,7 +16171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>306</v>
       </c>
@@ -16220,7 +16224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>311</v>
       </c>
@@ -16273,7 +16277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>318</v>
       </c>
@@ -16326,7 +16330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>323</v>
       </c>
@@ -16379,7 +16383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>328</v>
       </c>
@@ -16432,7 +16436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>334</v>
       </c>
@@ -16485,7 +16489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>341</v>
       </c>
@@ -16538,7 +16542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>346</v>
       </c>
@@ -16591,7 +16595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>353</v>
       </c>
@@ -16644,7 +16648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>361</v>
       </c>
@@ -16697,7 +16701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>370</v>
       </c>
@@ -16750,7 +16754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>375</v>
       </c>
@@ -16803,7 +16807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>380</v>
       </c>
@@ -16856,7 +16860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>388</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>393</v>
       </c>
@@ -16962,7 +16966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>401</v>
       </c>
@@ -17015,7 +17019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>406</v>
       </c>
@@ -17068,7 +17072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>413</v>
       </c>
@@ -17121,7 +17125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>418</v>
       </c>
@@ -17174,7 +17178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>426</v>
       </c>
@@ -17227,7 +17231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>433</v>
       </c>
@@ -17280,7 +17284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>439</v>
       </c>
@@ -17333,7 +17337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>446</v>
       </c>
@@ -17386,7 +17390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>453</v>
       </c>
@@ -17439,7 +17443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>460</v>
       </c>
@@ -17492,7 +17496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>467</v>
       </c>
@@ -17545,7 +17549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>472</v>
       </c>
@@ -17598,7 +17602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>480</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>486</v>
       </c>
@@ -17704,7 +17708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>493</v>
       </c>
@@ -17757,7 +17761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>500</v>
       </c>
@@ -17810,7 +17814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>507</v>
       </c>
@@ -17863,7 +17867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>514</v>
       </c>
@@ -17916,7 +17920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>518</v>
       </c>
@@ -17969,7 +17973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>526</v>
       </c>
@@ -18022,7 +18026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>531</v>
       </c>
@@ -18075,7 +18079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>538</v>
       </c>
@@ -18128,7 +18132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>545</v>
       </c>
@@ -18181,7 +18185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>550</v>
       </c>
@@ -18234,7 +18238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>557</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>562</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>567</v>
       </c>
@@ -18393,7 +18397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>576</v>
       </c>
@@ -18446,7 +18450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>581</v>
       </c>
@@ -18499,7 +18503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>587</v>
       </c>
@@ -18552,7 +18556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>592</v>
       </c>
@@ -18605,7 +18609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>597</v>
       </c>
@@ -18658,7 +18662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>604</v>
       </c>
@@ -18711,7 +18715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>610</v>
       </c>
@@ -18764,7 +18768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>615</v>
       </c>
@@ -18817,7 +18821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>620</v>
       </c>
@@ -18870,7 +18874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>625</v>
       </c>
@@ -18923,7 +18927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>630</v>
       </c>
@@ -18976,7 +18980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>635</v>
       </c>
@@ -19029,7 +19033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>639</v>
       </c>
@@ -19082,7 +19086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>646</v>
       </c>
@@ -19135,7 +19139,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>651</v>
       </c>
@@ -19188,7 +19192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>656</v>
       </c>
@@ -19241,7 +19245,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>661</v>
       </c>
@@ -19294,7 +19298,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>666</v>
       </c>
@@ -19347,7 +19351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>674</v>
       </c>
@@ -19400,7 +19404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>679</v>
       </c>
@@ -19453,7 +19457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>684</v>
       </c>
@@ -19506,7 +19510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>689</v>
       </c>
@@ -19559,7 +19563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>694</v>
       </c>
@@ -19612,7 +19616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>702</v>
       </c>
@@ -19665,7 +19669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>707</v>
       </c>
@@ -19718,7 +19722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>712</v>
       </c>
@@ -19771,7 +19775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>719</v>
       </c>
@@ -19824,7 +19828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>724</v>
       </c>
@@ -19877,7 +19881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>731</v>
       </c>
@@ -19930,7 +19934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>736</v>
       </c>
@@ -19983,7 +19987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>741</v>
       </c>
@@ -20036,7 +20040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>746</v>
       </c>
@@ -20089,7 +20093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>751</v>
       </c>
@@ -20142,7 +20146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>755</v>
       </c>
@@ -20195,7 +20199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>760</v>
       </c>
@@ -20248,7 +20252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>764</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>768</v>
       </c>
@@ -20354,7 +20358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>773</v>
       </c>
@@ -20407,7 +20411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>778</v>
       </c>
@@ -20460,7 +20464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>783</v>
       </c>
@@ -20513,7 +20517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>788</v>
       </c>
@@ -20566,7 +20570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>793</v>
       </c>
@@ -20619,7 +20623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>798</v>
       </c>
@@ -20672,7 +20676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>803</v>
       </c>
@@ -20725,7 +20729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>808</v>
       </c>
@@ -20778,7 +20782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>813</v>
       </c>
@@ -20831,7 +20835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>818</v>
       </c>
@@ -20884,7 +20888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>823</v>
       </c>
@@ -20937,7 +20941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>828</v>
       </c>
@@ -20990,7 +20994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>833</v>
       </c>
@@ -21043,7 +21047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>839</v>
       </c>
@@ -21096,7 +21100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>846</v>
       </c>
@@ -21149,7 +21153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>851</v>
       </c>
@@ -21202,7 +21206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>857</v>
       </c>
@@ -21255,7 +21259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>862</v>
       </c>
@@ -21308,7 +21312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>867</v>
       </c>
@@ -21361,7 +21365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>872</v>
       </c>
@@ -21414,7 +21418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>876</v>
       </c>
@@ -21467,7 +21471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>881</v>
       </c>
@@ -21520,7 +21524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>886</v>
       </c>
@@ -21573,7 +21577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>893</v>
       </c>
@@ -21626,7 +21630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>898</v>
       </c>
@@ -21679,7 +21683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>903</v>
       </c>
@@ -21732,7 +21736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>908</v>
       </c>
@@ -21785,7 +21789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>915</v>
       </c>
@@ -21838,7 +21842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>920</v>
       </c>
@@ -21891,7 +21895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>925</v>
       </c>
@@ -21944,7 +21948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>930</v>
       </c>
@@ -21997,7 +22001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>935</v>
       </c>
@@ -22050,7 +22054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>940</v>
       </c>
@@ -22103,7 +22107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>945</v>
       </c>
@@ -22156,7 +22160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>950</v>
       </c>
@@ -22209,7 +22213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>955</v>
       </c>
@@ -22262,7 +22266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>960</v>
       </c>
@@ -22315,7 +22319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>965</v>
       </c>
@@ -22368,7 +22372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>970</v>
       </c>
@@ -22421,7 +22425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>975</v>
       </c>
@@ -22474,7 +22478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>980</v>
       </c>
@@ -22527,7 +22531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>985</v>
       </c>
@@ -22580,7 +22584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>990</v>
       </c>
@@ -22633,7 +22637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>995</v>
       </c>
@@ -22686,7 +22690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>1000</v>
       </c>
@@ -22739,7 +22743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>1005</v>
       </c>
@@ -22792,7 +22796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>1010</v>
       </c>
@@ -22845,7 +22849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>1015</v>
       </c>
@@ -22898,7 +22902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>1020</v>
       </c>
@@ -22951,7 +22955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>1025</v>
       </c>
@@ -23004,7 +23008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>1030</v>
       </c>
@@ -23057,7 +23061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>1037</v>
       </c>
@@ -23110,7 +23114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>1042</v>
       </c>
@@ -23163,7 +23167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>1047</v>
       </c>
@@ -23216,7 +23220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>1052</v>
       </c>
@@ -23269,7 +23273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>1057</v>
       </c>
@@ -23322,7 +23326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>1062</v>
       </c>
@@ -23375,7 +23379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>1067</v>
       </c>
@@ -23428,7 +23432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>1072</v>
       </c>
@@ -23481,7 +23485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>1077</v>
       </c>
@@ -23534,7 +23538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>1082</v>
       </c>
@@ -23587,7 +23591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>1087</v>
       </c>
@@ -23640,7 +23644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>1092</v>
       </c>
@@ -23693,7 +23697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>1097</v>
       </c>
@@ -23746,7 +23750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>1102</v>
       </c>
@@ -23799,7 +23803,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>1107</v>
       </c>
@@ -23852,7 +23856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>1113</v>
       </c>
@@ -23905,7 +23909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>1118</v>
       </c>
@@ -23958,7 +23962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>1122</v>
       </c>
@@ -24011,7 +24015,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>1127</v>
       </c>
@@ -24064,7 +24068,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>1132</v>
       </c>
@@ -24117,7 +24121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>1138</v>
       </c>
@@ -24170,7 +24174,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>1143</v>
       </c>
@@ -24223,7 +24227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>1148</v>
       </c>
@@ -24276,7 +24280,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>1153</v>
       </c>
@@ -24329,7 +24333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>1160</v>
       </c>
@@ -24382,7 +24386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>1165</v>
       </c>
@@ -24435,7 +24439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>1170</v>
       </c>
@@ -24488,7 +24492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>1175</v>
       </c>
@@ -24541,7 +24545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>1180</v>
       </c>
@@ -24594,7 +24598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>1185</v>
       </c>
@@ -24647,7 +24651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>1190</v>
       </c>
@@ -24700,7 +24704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>1195</v>
       </c>
@@ -24753,7 +24757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>1200</v>
       </c>
@@ -24806,7 +24810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>1205</v>
       </c>
@@ -24859,7 +24863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>1210</v>
       </c>
@@ -24912,7 +24916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>1215</v>
       </c>
@@ -24965,7 +24969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>1220</v>
       </c>
@@ -25018,7 +25022,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>1225</v>
       </c>
@@ -25071,7 +25075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>1230</v>
       </c>
@@ -25124,7 +25128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>1235</v>
       </c>
@@ -25177,7 +25181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>1240</v>
       </c>
@@ -25230,7 +25234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>1245</v>
       </c>
@@ -25283,7 +25287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>1250</v>
       </c>
@@ -25336,7 +25340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>1255</v>
       </c>
@@ -25389,7 +25393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>1259</v>
       </c>
@@ -25442,7 +25446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>1263</v>
       </c>
@@ -25495,7 +25499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>1268</v>
       </c>
@@ -25548,7 +25552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>1272</v>
       </c>
@@ -25601,7 +25605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>1277</v>
       </c>
@@ -25654,7 +25658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>1281</v>
       </c>
@@ -25707,7 +25711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>1286</v>
       </c>
@@ -25760,7 +25764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>1291</v>
       </c>
@@ -25813,7 +25817,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>1299</v>
       </c>
@@ -25866,7 +25870,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>1304</v>
       </c>
@@ -25919,7 +25923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>1309</v>
       </c>
@@ -25972,7 +25976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>1314</v>
       </c>
@@ -26025,7 +26029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>1319</v>
       </c>
@@ -26078,7 +26082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>1324</v>
       </c>
@@ -26131,7 +26135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>1329</v>
       </c>
@@ -26184,7 +26188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>1334</v>
       </c>
@@ -26237,7 +26241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>1338</v>
       </c>
@@ -26290,7 +26294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>1343</v>
       </c>
@@ -26343,7 +26347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>1348</v>
       </c>
@@ -26396,7 +26400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>1355</v>
       </c>
@@ -26449,7 +26453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>1360</v>
       </c>
@@ -26502,7 +26506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>1365</v>
       </c>
@@ -26555,7 +26559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>1370</v>
       </c>
@@ -26608,7 +26612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>1375</v>
       </c>
@@ -26661,7 +26665,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>1380</v>
       </c>
@@ -26714,7 +26718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>1385</v>
       </c>
@@ -26767,7 +26771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>1389</v>
       </c>
@@ -26820,7 +26824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>1394</v>
       </c>
@@ -26873,7 +26877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>1399</v>
       </c>
@@ -26926,7 +26930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>1404</v>
       </c>
@@ -26979,7 +26983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>1409</v>
       </c>
@@ -27032,7 +27036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>1414</v>
       </c>
@@ -27085,7 +27089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>1421</v>
       </c>
@@ -27138,7 +27142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>1426</v>
       </c>
@@ -27191,7 +27195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>1431</v>
       </c>
@@ -27244,7 +27248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>1436</v>
       </c>
@@ -27297,7 +27301,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>1441</v>
       </c>
@@ -27350,7 +27354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>1446</v>
       </c>
@@ -27403,7 +27407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>1451</v>
       </c>
@@ -27456,7 +27460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>1456</v>
       </c>
@@ -27509,7 +27513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>1461</v>
       </c>
@@ -27562,7 +27566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>1466</v>
       </c>
@@ -27615,7 +27619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>1471</v>
       </c>
@@ -27668,7 +27672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>1476</v>
       </c>
@@ -27721,7 +27725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>1481</v>
       </c>
@@ -27774,7 +27778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>1486</v>
       </c>
@@ -27827,7 +27831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>1491</v>
       </c>
@@ -27880,7 +27884,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>1496</v>
       </c>
@@ -27933,7 +27937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>1501</v>
       </c>
@@ -27986,7 +27990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>1506</v>
       </c>
@@ -28039,7 +28043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>1511</v>
       </c>
@@ -28092,7 +28096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>1516</v>
       </c>
@@ -28145,7 +28149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>1521</v>
       </c>
@@ -28198,7 +28202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>1526</v>
       </c>
@@ -28251,7 +28255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>1533</v>
       </c>
@@ -28304,7 +28308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>1538</v>
       </c>
@@ -28357,7 +28361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>1543</v>
       </c>
@@ -28410,7 +28414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>1548</v>
       </c>
@@ -28463,7 +28467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>1553</v>
       </c>
@@ -28516,7 +28520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>1557</v>
       </c>
@@ -28569,7 +28573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>1562</v>
       </c>
@@ -28622,7 +28626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>1569</v>
       </c>
@@ -28675,7 +28679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>1574</v>
       </c>
@@ -28728,7 +28732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>1579</v>
       </c>
@@ -28781,7 +28785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>1584</v>
       </c>
@@ -28834,7 +28838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>1589</v>
       </c>
@@ -28887,7 +28891,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>1597</v>
       </c>
@@ -28940,7 +28944,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>1602</v>
       </c>
@@ -28993,7 +28997,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>1607</v>
       </c>
@@ -29046,7 +29050,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>1612</v>
       </c>
@@ -29099,7 +29103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>1620</v>
       </c>
@@ -29152,7 +29156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>1625</v>
       </c>
@@ -29205,7 +29209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>1630</v>
       </c>
@@ -29258,7 +29262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>1635</v>
       </c>
@@ -29311,7 +29315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>1640</v>
       </c>
@@ -29364,7 +29368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>1645</v>
       </c>
@@ -29417,7 +29421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>1650</v>
       </c>
@@ -29470,7 +29474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>1655</v>
       </c>
@@ -29523,7 +29527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>1660</v>
       </c>
@@ -29576,7 +29580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>1665</v>
       </c>
@@ -29629,7 +29633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>1670</v>
       </c>
@@ -29682,7 +29686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>1675</v>
       </c>
@@ -29735,7 +29739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>1680</v>
       </c>
@@ -29788,7 +29792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>1685</v>
       </c>
@@ -29841,7 +29845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>1690</v>
       </c>
@@ -29894,7 +29898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>1695</v>
       </c>
@@ -29947,7 +29951,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>1700</v>
       </c>
@@ -30000,7 +30004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>1705</v>
       </c>
@@ -30053,7 +30057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>1710</v>
       </c>
@@ -30106,7 +30110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>1715</v>
       </c>
@@ -30159,7 +30163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>1720</v>
       </c>
@@ -30212,7 +30216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>1725</v>
       </c>
@@ -30265,7 +30269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>1730</v>
       </c>
@@ -30318,7 +30322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>1735</v>
       </c>
@@ -30371,7 +30375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>1740</v>
       </c>
@@ -30424,7 +30428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>1745</v>
       </c>
@@ -30477,7 +30481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>1750</v>
       </c>
@@ -30530,7 +30534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>1755</v>
       </c>
@@ -30583,7 +30587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>1760</v>
       </c>
@@ -30636,7 +30640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>1765</v>
       </c>
@@ -30689,7 +30693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>1770</v>
       </c>
@@ -30742,7 +30746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>1775</v>
       </c>
@@ -30795,7 +30799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>1780</v>
       </c>
@@ -30848,7 +30852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>1785</v>
       </c>
@@ -30901,7 +30905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>1790</v>
       </c>
@@ -30954,7 +30958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>1795</v>
       </c>
@@ -31007,7 +31011,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>1800</v>
       </c>
@@ -31060,7 +31064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>1805</v>
       </c>
@@ -31113,7 +31117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>1810</v>
       </c>
@@ -31166,7 +31170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>1814</v>
       </c>
@@ -31219,7 +31223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>1821</v>
       </c>
@@ -31272,7 +31276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>1826</v>
       </c>
@@ -31325,7 +31329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>1831</v>
       </c>
@@ -31378,7 +31382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>1836</v>
       </c>
@@ -31431,7 +31435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>1841</v>
       </c>
@@ -31484,7 +31488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>1846</v>
       </c>
@@ -31537,7 +31541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>1853</v>
       </c>
@@ -31590,7 +31594,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>1858</v>
       </c>
@@ -31643,7 +31647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>1863</v>
       </c>
@@ -31696,7 +31700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>1868</v>
       </c>
@@ -31749,7 +31753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>1875</v>
       </c>
@@ -31802,7 +31806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>1882</v>
       </c>
@@ -31855,7 +31859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>1887</v>
       </c>
@@ -31908,7 +31912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>1892</v>
       </c>
@@ -31961,7 +31965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>1897</v>
       </c>
@@ -32014,7 +32018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>1902</v>
       </c>
@@ -32067,7 +32071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>1907</v>
       </c>
@@ -32120,7 +32124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>1912</v>
       </c>
@@ -32173,7 +32177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>1917</v>
       </c>
@@ -32226,7 +32230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>1921</v>
       </c>
@@ -32279,7 +32283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>1925</v>
       </c>
@@ -32332,7 +32336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>1930</v>
       </c>
@@ -32385,7 +32389,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>1935</v>
       </c>
@@ -32438,7 +32442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>1940</v>
       </c>
@@ -32491,7 +32495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>1945</v>
       </c>
@@ -32544,7 +32548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>1950</v>
       </c>
@@ -32597,7 +32601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>1955</v>
       </c>
@@ -32650,7 +32654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>1962</v>
       </c>
@@ -32703,7 +32707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>1967</v>
       </c>
@@ -32756,7 +32760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>1972</v>
       </c>
@@ -32809,7 +32813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>1977</v>
       </c>
@@ -32862,7 +32866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>1984</v>
       </c>
@@ -32915,7 +32919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>1989</v>
       </c>
@@ -32968,7 +32972,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>1994</v>
       </c>
@@ -33021,7 +33025,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>1999</v>
       </c>
@@ -33074,7 +33078,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>2006</v>
       </c>
@@ -33127,7 +33131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>2011</v>
       </c>
@@ -33180,7 +33184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>2018</v>
       </c>
@@ -33233,7 +33237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>2023</v>
       </c>
@@ -33286,7 +33290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>2028</v>
       </c>
@@ -33339,7 +33343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>2033</v>
       </c>
@@ -33392,7 +33396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>2038</v>
       </c>
@@ -33445,7 +33449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>2045</v>
       </c>
@@ -33498,7 +33502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>2050</v>
       </c>
@@ -33551,7 +33555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>2055</v>
       </c>
@@ -33604,7 +33608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>2060</v>
       </c>
@@ -33657,7 +33661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>2064</v>
       </c>
@@ -33710,7 +33714,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>2067</v>
       </c>
@@ -33763,7 +33767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>2072</v>
       </c>
@@ -33816,7 +33820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>2077</v>
       </c>
@@ -33869,7 +33873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>2083</v>
       </c>
@@ -33922,7 +33926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>2088</v>
       </c>
@@ -33975,7 +33979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>2093</v>
       </c>
@@ -34028,7 +34032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>2098</v>
       </c>
@@ -34081,7 +34085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>2103</v>
       </c>
@@ -34134,7 +34138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>2107</v>
       </c>
@@ -34187,7 +34191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>2112</v>
       </c>
@@ -34240,7 +34244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>2117</v>
       </c>
@@ -34293,7 +34297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>2121</v>
       </c>
@@ -34346,7 +34350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>2126</v>
       </c>
@@ -34399,7 +34403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>2131</v>
       </c>
@@ -34452,7 +34456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>2136</v>
       </c>
@@ -34505,7 +34509,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>2141</v>
       </c>
@@ -34558,7 +34562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>2146</v>
       </c>
@@ -34611,7 +34615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>2151</v>
       </c>
@@ -34664,7 +34668,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>2155</v>
       </c>
@@ -34717,7 +34721,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>2159</v>
       </c>
@@ -34770,7 +34774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>2163</v>
       </c>
@@ -34823,7 +34827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>2168</v>
       </c>
@@ -34876,7 +34880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>2172</v>
       </c>
@@ -34929,7 +34933,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>2176</v>
       </c>
@@ -34982,7 +34986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>2181</v>
       </c>
@@ -35035,7 +35039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>2186</v>
       </c>
@@ -35088,7 +35092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>2190</v>
       </c>
@@ -35141,7 +35145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>2195</v>
       </c>
@@ -35194,7 +35198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>2199</v>
       </c>
@@ -35247,7 +35251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>2204</v>
       </c>
@@ -35300,7 +35304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>2209</v>
       </c>
@@ -35353,7 +35357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>2213</v>
       </c>
@@ -35406,7 +35410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>2217</v>
       </c>
@@ -35459,7 +35463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>2222</v>
       </c>
@@ -35512,7 +35516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>2227</v>
       </c>
@@ -35565,7 +35569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>2232</v>
       </c>
@@ -35618,7 +35622,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>2237</v>
       </c>
@@ -35671,7 +35675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>2242</v>
       </c>
@@ -35724,7 +35728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>2247</v>
       </c>
@@ -35777,7 +35781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>2252</v>
       </c>
@@ -35830,7 +35834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>2257</v>
       </c>
@@ -35883,7 +35887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>2262</v>
       </c>
@@ -35936,7 +35940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>2266</v>
       </c>
@@ -35989,7 +35993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>2271</v>
       </c>
@@ -36042,7 +36046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>2276</v>
       </c>
@@ -36095,7 +36099,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>2281</v>
       </c>
@@ -36148,7 +36152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>2286</v>
       </c>
@@ -36201,7 +36205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>2291</v>
       </c>
@@ -36254,7 +36258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>2296</v>
       </c>
@@ -36307,7 +36311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>2302</v>
       </c>
@@ -36360,7 +36364,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>2307</v>
       </c>
@@ -36413,7 +36417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>2312</v>
       </c>
@@ -36466,7 +36470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>2317</v>
       </c>
@@ -36519,7 +36523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>2322</v>
       </c>
@@ -36572,7 +36576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>2326</v>
       </c>
@@ -36625,7 +36629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>2330</v>
       </c>
@@ -36678,7 +36682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>2334</v>
       </c>
@@ -36731,7 +36735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>2338</v>
       </c>
@@ -36784,7 +36788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>2343</v>
       </c>
@@ -36837,7 +36841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>2347</v>
       </c>
@@ -36890,7 +36894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>2351</v>
       </c>
@@ -36943,7 +36947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>2355</v>
       </c>
@@ -36996,7 +37000,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>2359</v>
       </c>
@@ -37049,7 +37053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>2364</v>
       </c>
@@ -37102,7 +37106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>2369</v>
       </c>
@@ -37155,7 +37159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>2374</v>
       </c>
@@ -37208,7 +37212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>2378</v>
       </c>
@@ -37261,7 +37265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>2383</v>
       </c>
@@ -37314,7 +37318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>2388</v>
       </c>
@@ -37367,7 +37371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>2393</v>
       </c>
@@ -37420,7 +37424,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>2398</v>
       </c>
@@ -37473,7 +37477,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>2403</v>
       </c>
@@ -37526,7 +37530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>2408</v>
       </c>
@@ -37579,7 +37583,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>2413</v>
       </c>
@@ -37632,7 +37636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>2418</v>
       </c>
@@ -37685,7 +37689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>2423</v>
       </c>
@@ -37738,7 +37742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>2428</v>
       </c>
@@ -37791,7 +37795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>2432</v>
       </c>
@@ -37844,7 +37848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>2437</v>
       </c>
@@ -37897,7 +37901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>2442</v>
       </c>
@@ -37950,7 +37954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>2447</v>
       </c>
@@ -38003,7 +38007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>2452</v>
       </c>
@@ -38056,7 +38060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>2457</v>
       </c>
@@ -38109,7 +38113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>2462</v>
       </c>
@@ -38162,7 +38166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>2466</v>
       </c>
@@ -38215,7 +38219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>2470</v>
       </c>
@@ -38268,7 +38272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>2475</v>
       </c>
@@ -38321,7 +38325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>2479</v>
       </c>
@@ -38374,7 +38378,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>2483</v>
       </c>
@@ -38427,7 +38431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>2488</v>
       </c>
@@ -38480,7 +38484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>2492</v>
       </c>
@@ -38533,7 +38537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>2496</v>
       </c>
@@ -38586,7 +38590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>2501</v>
       </c>
@@ -38639,7 +38643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>2506</v>
       </c>
@@ -38692,7 +38696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>2511</v>
       </c>
@@ -38745,7 +38749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>2516</v>
       </c>
@@ -38798,7 +38802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>2521</v>
       </c>
@@ -38851,7 +38855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>2525</v>
       </c>
@@ -38904,7 +38908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>2529</v>
       </c>
@@ -38957,7 +38961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>2534</v>
       </c>
@@ -39010,7 +39014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>2539</v>
       </c>
@@ -39063,7 +39067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>2544</v>
       </c>
@@ -39116,7 +39120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>2549</v>
       </c>
@@ -39169,7 +39173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>2554</v>
       </c>
@@ -39222,7 +39226,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>2559</v>
       </c>
@@ -39275,7 +39279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>2563</v>
       </c>
@@ -39328,7 +39332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>2567</v>
       </c>
@@ -39381,7 +39385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>2572</v>
       </c>
@@ -39434,7 +39438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>2577</v>
       </c>
@@ -39487,7 +39491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>2582</v>
       </c>
@@ -39540,7 +39544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>2587</v>
       </c>
@@ -39593,7 +39597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>2592</v>
       </c>
@@ -39646,7 +39650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>2597</v>
       </c>
@@ -39699,7 +39703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>2603</v>
       </c>
@@ -39752,7 +39756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>2608</v>
       </c>
@@ -39805,7 +39809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>2613</v>
       </c>
@@ -39858,7 +39862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>2617</v>
       </c>
@@ -39911,7 +39915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>2621</v>
       </c>
@@ -39964,7 +39968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>2626</v>
       </c>
@@ -40017,7 +40021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>2631</v>
       </c>
@@ -40070,7 +40074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>2636</v>
       </c>
@@ -40123,7 +40127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>2640</v>
       </c>
@@ -40176,7 +40180,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>2644</v>
       </c>
@@ -40229,7 +40233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>2649</v>
       </c>
@@ -40282,7 +40286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>2654</v>
       </c>
@@ -40335,7 +40339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>2658</v>
       </c>
@@ -40388,7 +40392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>2663</v>
       </c>
@@ -40441,7 +40445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>2668</v>
       </c>
@@ -40494,7 +40498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>2673</v>
       </c>
@@ -40547,7 +40551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>2677</v>
       </c>
@@ -40600,7 +40604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>2682</v>
       </c>
@@ -40653,7 +40657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>2687</v>
       </c>
@@ -40706,7 +40710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>2692</v>
       </c>
@@ -40759,7 +40763,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>2697</v>
       </c>
@@ -40812,7 +40816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>2702</v>
       </c>
@@ -40865,7 +40869,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>2707</v>
       </c>
@@ -40918,7 +40922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>2712</v>
       </c>
@@ -40971,7 +40975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>2717</v>
       </c>
@@ -41024,7 +41028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>2722</v>
       </c>
@@ -41077,7 +41081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>2727</v>
       </c>
@@ -41130,7 +41134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>2732</v>
       </c>
@@ -41183,7 +41187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>2737</v>
       </c>
@@ -41236,7 +41240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>2741</v>
       </c>
@@ -41289,7 +41293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>2745</v>
       </c>
@@ -41342,7 +41346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>2750</v>
       </c>
@@ -41395,7 +41399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>2754</v>
       </c>
@@ -41448,7 +41452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>2758</v>
       </c>
@@ -41501,7 +41505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>2762</v>
       </c>
@@ -41554,7 +41558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>2767</v>
       </c>
@@ -41607,7 +41611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>2771</v>
       </c>
@@ -41660,7 +41664,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>2776</v>
       </c>
@@ -41713,7 +41717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>2781</v>
       </c>
@@ -41766,7 +41770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>2786</v>
       </c>
@@ -41819,7 +41823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>2791</v>
       </c>
@@ -41872,7 +41876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>2794</v>
       </c>
@@ -41925,7 +41929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>2798</v>
       </c>
@@ -41978,7 +41982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>2803</v>
       </c>
@@ -42031,7 +42035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>2808</v>
       </c>
@@ -42084,7 +42088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>2812</v>
       </c>
@@ -42137,7 +42141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>2817</v>
       </c>
@@ -42190,7 +42194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>2822</v>
       </c>
@@ -42243,7 +42247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>2827</v>
       </c>
@@ -42296,7 +42300,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>2832</v>
       </c>
@@ -42349,7 +42353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>2837</v>
       </c>
@@ -42402,7 +42406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>2842</v>
       </c>
@@ -42455,7 +42459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>2847</v>
       </c>
@@ -42508,7 +42512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>2852</v>
       </c>
@@ -42561,7 +42565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>2856</v>
       </c>
@@ -42614,7 +42618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>2860</v>
       </c>
@@ -42667,7 +42671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>2865</v>
       </c>
@@ -42720,7 +42724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>2869</v>
       </c>
@@ -42773,7 +42777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>2874</v>
       </c>
@@ -42826,7 +42830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>2879</v>
       </c>
@@ -42879,7 +42883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>2884</v>
       </c>
@@ -42932,7 +42936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>2889</v>
       </c>
@@ -42985,7 +42989,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>2894</v>
       </c>
@@ -43038,7 +43042,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>2899</v>
       </c>
@@ -43091,7 +43095,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>2904</v>
       </c>
@@ -43144,7 +43148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>2909</v>
       </c>
@@ -43197,7 +43201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>2916</v>
       </c>
@@ -43250,7 +43254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>2921</v>
       </c>
@@ -43303,7 +43307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>2926</v>
       </c>
@@ -43356,7 +43360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>2931</v>
       </c>
@@ -43409,7 +43413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
         <v>2936</v>
       </c>
@@ -43462,7 +43466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>2941</v>
       </c>
@@ -43515,7 +43519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>2946</v>
       </c>
@@ -43568,7 +43572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>2951</v>
       </c>
@@ -43621,7 +43625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>2956</v>
       </c>
@@ -43674,7 +43678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="561" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>2961</v>
       </c>
@@ -43727,7 +43731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="562" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>2966</v>
       </c>
@@ -43780,7 +43784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="563" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>2971</v>
       </c>
@@ -43833,7 +43837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="564" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>2976</v>
       </c>
@@ -43886,7 +43890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="565" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>2981</v>
       </c>
@@ -43939,7 +43943,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="566" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>2986</v>
       </c>
@@ -43992,7 +43996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="567" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>2991</v>
       </c>
@@ -44045,7 +44049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="568" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>2996</v>
       </c>
@@ -44098,7 +44102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="569" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>3001</v>
       </c>
@@ -44151,7 +44155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="570" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>3006</v>
       </c>
@@ -44204,7 +44208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="571" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>3011</v>
       </c>
@@ -44257,7 +44261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="572" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>3016</v>
       </c>
@@ -44310,7 +44314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="573" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>3021</v>
       </c>
@@ -44363,7 +44367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>3026</v>
       </c>
@@ -44416,7 +44420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>3031</v>
       </c>
@@ -44469,7 +44473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="576" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>3035</v>
       </c>
@@ -44522,7 +44526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="577" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>3039</v>
       </c>
@@ -44575,7 +44579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="578" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>3043</v>
       </c>
@@ -44628,7 +44632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="579" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>3047</v>
       </c>
@@ -44681,7 +44685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="580" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>3051</v>
       </c>
@@ -44734,7 +44738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="581" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>3056</v>
       </c>
@@ -44787,7 +44791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="582" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>3061</v>
       </c>
@@ -44840,7 +44844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="583" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>3066</v>
       </c>
@@ -44893,7 +44897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="584" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
         <v>3070</v>
       </c>
@@ -44946,7 +44950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="585" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>3074</v>
       </c>
@@ -44999,7 +45003,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="586" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>3079</v>
       </c>
@@ -45052,7 +45056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="587" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>3084</v>
       </c>
@@ -45105,7 +45109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="588" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
         <v>3088</v>
       </c>
@@ -45158,7 +45162,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="589" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>3093</v>
       </c>
@@ -45211,7 +45215,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="590" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>3098</v>
       </c>
@@ -45264,7 +45268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="591" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>3103</v>
       </c>
@@ -45317,7 +45321,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="592" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
         <v>3107</v>
       </c>
@@ -45370,7 +45374,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="593" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>3112</v>
       </c>
@@ -45423,7 +45427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="594" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>3117</v>
       </c>
@@ -45476,7 +45480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="595" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>3122</v>
       </c>
@@ -45529,7 +45533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="596" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>3129</v>
       </c>
@@ -45582,7 +45586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="597" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>3134</v>
       </c>
@@ -45635,7 +45639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="598" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>3139</v>
       </c>
@@ -45688,7 +45692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="599" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
         <v>3144</v>
       </c>
@@ -45741,7 +45745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="600" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
         <v>3149</v>
       </c>
@@ -45794,7 +45798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="601" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>3154</v>
       </c>
@@ -45847,7 +45851,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="602" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
         <v>3159</v>
       </c>
@@ -45900,7 +45904,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="603" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>3164</v>
       </c>
@@ -45953,7 +45957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="604" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>3171</v>
       </c>
@@ -46006,7 +46010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="605" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
         <v>3175</v>
       </c>
@@ -46059,7 +46063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="606" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
         <v>3179</v>
       </c>
@@ -46112,7 +46116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="607" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>3183</v>
       </c>
@@ -46165,7 +46169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="608" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
         <v>3187</v>
       </c>
@@ -46218,7 +46222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="609" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>3191</v>
       </c>
@@ -46271,7 +46275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="610" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>3196</v>
       </c>
@@ -46324,7 +46328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="611" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>3201</v>
       </c>
@@ -46377,7 +46381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="612" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>3206</v>
       </c>
@@ -46430,7 +46434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="613" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>3211</v>
       </c>
@@ -46483,7 +46487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="614" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>3216</v>
       </c>
@@ -46536,7 +46540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="615" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>3220</v>
       </c>
@@ -46589,7 +46593,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="616" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>3225</v>
       </c>
@@ -46642,7 +46646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="617" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>3230</v>
       </c>
@@ -46695,7 +46699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="618" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>3235</v>
       </c>
@@ -46748,7 +46752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="619" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>3240</v>
       </c>
@@ -46801,7 +46805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="620" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
         <v>3245</v>
       </c>
@@ -46854,7 +46858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="621" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>3250</v>
       </c>
@@ -46907,7 +46911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="622" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>3255</v>
       </c>
@@ -46960,7 +46964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="623" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>3259</v>
       </c>
@@ -47013,7 +47017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="624" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>3263</v>
       </c>
@@ -47066,7 +47070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="625" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>3268</v>
       </c>
@@ -47119,7 +47123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="626" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>3272</v>
       </c>
@@ -47172,7 +47176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="627" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>3276</v>
       </c>
@@ -47225,7 +47229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="628" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>3280</v>
       </c>
@@ -47278,7 +47282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="629" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>3285</v>
       </c>
@@ -47331,7 +47335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="630" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>3289</v>
       </c>
@@ -47384,7 +47388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="631" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
         <v>3291</v>
       </c>
@@ -47437,7 +47441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="632" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>3296</v>
       </c>
@@ -47490,7 +47494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="633" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>3301</v>
       </c>
@@ -47543,7 +47547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="634" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>3306</v>
       </c>
@@ -47596,7 +47600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="635" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>3311</v>
       </c>
@@ -47649,7 +47653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="636" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>3316</v>
       </c>
@@ -47702,7 +47706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="637" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>3320</v>
       </c>
@@ -47755,7 +47759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="638" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>3325</v>
       </c>
@@ -47808,7 +47812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="639" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>3329</v>
       </c>
@@ -47861,7 +47865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="640" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
         <v>3333</v>
       </c>
@@ -47914,7 +47918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="641" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
         <v>3337</v>
       </c>
@@ -47967,7 +47971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="642" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>3342</v>
       </c>
@@ -48020,7 +48024,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="643" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>3346</v>
       </c>
@@ -48073,7 +48077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="644" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>3350</v>
       </c>
@@ -48126,7 +48130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="645" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>3354</v>
       </c>
@@ -48179,7 +48183,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="646" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>3359</v>
       </c>
@@ -48232,7 +48236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="647" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>3364</v>
       </c>
@@ -48285,7 +48289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="648" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>3369</v>
       </c>
@@ -48338,7 +48342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="649" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>3374</v>
       </c>
@@ -48391,7 +48395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="650" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
         <v>3379</v>
       </c>
@@ -48444,7 +48448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="651" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>3384</v>
       </c>
@@ -48497,7 +48501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="652" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>3389</v>
       </c>
@@ -48550,7 +48554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="653" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>3394</v>
       </c>
@@ -48603,7 +48607,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="654" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>3399</v>
       </c>
@@ -48656,7 +48660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="655" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>3404</v>
       </c>
@@ -48709,7 +48713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="656" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>3409</v>
       </c>
@@ -48762,7 +48766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="657" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>3414</v>
       </c>
@@ -48815,7 +48819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="658" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>3419</v>
       </c>
@@ -48868,7 +48872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="659" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>3424</v>
       </c>
@@ -48921,7 +48925,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="660" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>3429</v>
       </c>
@@ -48974,7 +48978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="661" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>3434</v>
       </c>
@@ -49027,7 +49031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="662" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>3439</v>
       </c>
@@ -49080,7 +49084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="663" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>3444</v>
       </c>
@@ -49133,7 +49137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="664" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>3449</v>
       </c>
@@ -49186,7 +49190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="665" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>3453</v>
       </c>
@@ -49239,7 +49243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="666" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>3458</v>
       </c>
@@ -49292,7 +49296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="667" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>3463</v>
       </c>
@@ -49345,7 +49349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="668" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>3468</v>
       </c>
@@ -49398,7 +49402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="669" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>3473</v>
       </c>
@@ -49451,7 +49455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="670" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>3478</v>
       </c>
@@ -49504,7 +49508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="671" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
         <v>3482</v>
       </c>
@@ -49557,7 +49561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="672" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
         <v>3486</v>
       </c>
@@ -49610,7 +49614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="673" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>3490</v>
       </c>
@@ -49663,7 +49667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="674" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>3495</v>
       </c>
@@ -49716,7 +49720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="675" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>3500</v>
       </c>
@@ -49769,7 +49773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="676" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>3505</v>
       </c>
@@ -49822,7 +49826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="677" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>3510</v>
       </c>
@@ -49875,7 +49879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="678" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>3515</v>
       </c>
@@ -49928,7 +49932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="679" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>3519</v>
       </c>
@@ -49981,7 +49985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="680" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>3524</v>
       </c>
@@ -50034,7 +50038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="681" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>3529</v>
       </c>
@@ -50087,7 +50091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="682" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>3534</v>
       </c>
@@ -50140,7 +50144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="683" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>3539</v>
       </c>
@@ -50193,7 +50197,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="684" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>3544</v>
       </c>
@@ -50246,7 +50250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="685" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>3549</v>
       </c>
@@ -50299,7 +50303,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="686" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
         <v>3554</v>
       </c>
@@ -50352,7 +50356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="687" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>3559</v>
       </c>
@@ -50405,7 +50409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="688" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
         <v>3564</v>
       </c>
@@ -50458,7 +50462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
         <v>3569</v>
       </c>
@@ -50511,7 +50515,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
         <v>3574</v>
       </c>
@@ -50564,7 +50568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
         <v>3579</v>
       </c>
@@ -50617,7 +50621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>3584</v>
       </c>
@@ -50670,7 +50674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>3589</v>
       </c>
@@ -50723,7 +50727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
         <v>3594</v>
       </c>
@@ -50776,7 +50780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>3599</v>
       </c>
@@ -50829,7 +50833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
         <v>3604</v>
       </c>
@@ -50882,7 +50886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>3609</v>
       </c>
@@ -50935,7 +50939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>3614</v>
       </c>
@@ -50988,7 +50992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>3618</v>
       </c>
@@ -51041,7 +51045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>3623</v>
       </c>
@@ -51094,7 +51098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>3627</v>
       </c>
@@ -51147,7 +51151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>3632</v>
       </c>
@@ -51200,7 +51204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>3636</v>
       </c>
@@ -51253,7 +51257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>3641</v>
       </c>
@@ -51306,7 +51310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="705" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>3646</v>
       </c>
@@ -51359,7 +51363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="706" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>3650</v>
       </c>
@@ -51412,7 +51416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="707" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>3655</v>
       </c>
@@ -51465,7 +51469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="708" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>3660</v>
       </c>
@@ -51518,7 +51522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="709" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>3664</v>
       </c>
@@ -51571,7 +51575,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="710" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>3669</v>
       </c>
@@ -51624,7 +51628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="711" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>3674</v>
       </c>
@@ -51677,7 +51681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="712" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>3679</v>
       </c>
@@ -51730,7 +51734,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="713" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>3684</v>
       </c>
@@ -51783,7 +51787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="714" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>3689</v>
       </c>
@@ -51836,7 +51840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="715" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>3694</v>
       </c>
@@ -51889,7 +51893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="716" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>3698</v>
       </c>
@@ -51942,7 +51946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="717" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
         <v>3703</v>
       </c>
@@ -51995,7 +51999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="718" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>3708</v>
       </c>
@@ -52048,7 +52052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="719" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>3713</v>
       </c>
@@ -52101,7 +52105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="720" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>3718</v>
       </c>
@@ -52154,7 +52158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="721" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>3722</v>
       </c>
@@ -52207,7 +52211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="722" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>3727</v>
       </c>
@@ -52260,7 +52264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="723" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>3731</v>
       </c>
@@ -52313,7 +52317,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="724" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>3736</v>
       </c>
@@ -52366,7 +52370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="725" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>3740</v>
       </c>
@@ -52419,7 +52423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="726" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>3745</v>
       </c>
@@ -52472,7 +52476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="727" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>3749</v>
       </c>
@@ -52525,7 +52529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="728" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>3754</v>
       </c>
@@ -52578,7 +52582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="729" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
         <v>3758</v>
       </c>
@@ -52631,7 +52635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="730" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
         <v>3763</v>
       </c>
@@ -52684,7 +52688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="731" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
         <v>3768</v>
       </c>
@@ -52737,7 +52741,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="732" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>3773</v>
       </c>
@@ -52790,7 +52794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="733" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
         <v>3778</v>
       </c>
@@ -52843,7 +52847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
         <v>3783</v>
       </c>
@@ -52896,7 +52900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="735" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
         <v>3788</v>
       </c>
@@ -52949,7 +52953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="736" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
         <v>3795</v>
       </c>
@@ -53002,7 +53006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="737" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
         <v>3800</v>
       </c>
@@ -53055,7 +53059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="738" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
         <v>3805</v>
       </c>
@@ -53108,7 +53112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="739" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
         <v>3810</v>
       </c>
@@ -53161,7 +53165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="740" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
         <v>3815</v>
       </c>
@@ -53214,7 +53218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="741" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
         <v>3819</v>
       </c>
@@ -53267,7 +53271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="742" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>3824</v>
       </c>
@@ -53320,7 +53324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="743" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
         <v>3829</v>
       </c>
@@ -53373,7 +53377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="744" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
         <v>3834</v>
       </c>
@@ -53426,7 +53430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="745" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
         <v>3838</v>
       </c>
@@ -53479,7 +53483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="746" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
         <v>3843</v>
       </c>
@@ -53532,7 +53536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="747" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
         <v>3848</v>
       </c>
@@ -53585,7 +53589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="748" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
         <v>3852</v>
       </c>
@@ -53638,7 +53642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="749" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
         <v>3859</v>
       </c>
@@ -53691,7 +53695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="750" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
         <v>3864</v>
       </c>
@@ -53744,7 +53748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="751" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
         <v>3869</v>
       </c>
@@ -53797,7 +53801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="752" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
         <v>3874</v>
       </c>
@@ -53850,7 +53854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="753" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
         <v>3879</v>
       </c>
@@ -53903,7 +53907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="754" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
         <v>3884</v>
       </c>
@@ -53956,7 +53960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="755" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
         <v>3889</v>
       </c>
@@ -54009,7 +54013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="756" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>3894</v>
       </c>
@@ -54062,7 +54066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="757" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
         <v>3899</v>
       </c>
@@ -54115,7 +54119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="758" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
         <v>3904</v>
       </c>
@@ -54168,7 +54172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="759" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A759" s="5" t="s">
         <v>3909</v>
       </c>
@@ -54221,7 +54225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="760" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
         <v>3914</v>
       </c>
@@ -54274,7 +54278,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="761" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
         <v>3918</v>
       </c>
@@ -54327,7 +54331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="762" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
         <v>3922</v>
       </c>
@@ -54380,7 +54384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="763" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
         <v>3927</v>
       </c>
@@ -54433,7 +54437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="764" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
         <v>3931</v>
       </c>
@@ -54486,7 +54490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="765" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
         <v>3936</v>
       </c>
@@ -54539,7 +54543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="766" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
         <v>3943</v>
       </c>
@@ -54592,7 +54596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="767" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
         <v>3948</v>
       </c>
@@ -54645,7 +54649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="768" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
         <v>3953</v>
       </c>
@@ -54698,7 +54702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="769" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
         <v>3958</v>
       </c>
@@ -54751,7 +54755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="770" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
         <v>3963</v>
       </c>
@@ -54804,7 +54808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="771" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
         <v>3968</v>
       </c>
@@ -54857,7 +54861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="772" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
         <v>3973</v>
       </c>
@@ -54910,7 +54914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="773" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A773" s="5" t="s">
         <v>3978</v>
       </c>
@@ -54963,7 +54967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="774" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
         <v>3983</v>
       </c>
@@ -55016,7 +55020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="775" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
         <v>3989</v>
       </c>
@@ -55069,7 +55073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="776" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>3994</v>
       </c>
@@ -55122,7 +55126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="777" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A777" s="5" t="s">
         <v>3999</v>
       </c>
@@ -55175,7 +55179,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="778" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
         <v>4004</v>
       </c>
@@ -55228,7 +55232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="779" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
         <v>4009</v>
       </c>
@@ -55281,7 +55285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="780" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>4013</v>
       </c>
@@ -55334,7 +55338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="781" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
         <v>4016</v>
       </c>
@@ -55387,7 +55391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="782" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
         <v>4021</v>
       </c>
@@ -55440,7 +55444,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="783" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
         <v>4026</v>
       </c>
@@ -55493,7 +55497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="784" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
         <v>4031</v>
       </c>
@@ -55546,7 +55550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="785" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
         <v>4035</v>
       </c>
@@ -55599,7 +55603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="786" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A786" s="5" t="s">
         <v>4039</v>
       </c>
@@ -55652,7 +55656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="787" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
         <v>4044</v>
       </c>
@@ -55705,7 +55709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="788" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A788" s="5" t="s">
         <v>4049</v>
       </c>
@@ -55758,7 +55762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="789" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>4053</v>
       </c>
@@ -55811,7 +55815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="790" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
         <v>4057</v>
       </c>
@@ -55864,7 +55868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="791" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
         <v>4061</v>
       </c>
@@ -55917,7 +55921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="792" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
         <v>4065</v>
       </c>
@@ -55970,7 +55974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="793" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>4069</v>
       </c>
@@ -56023,7 +56027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="794" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
         <v>4073</v>
       </c>
@@ -56076,7 +56080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="795" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
         <v>4077</v>
       </c>
@@ -56129,7 +56133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="796" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
         <v>4081</v>
       </c>
@@ -56182,7 +56186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="797" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>4085</v>
       </c>
@@ -56235,7 +56239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="798" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
         <v>4090</v>
       </c>
@@ -56288,7 +56292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="799" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
         <v>4095</v>
       </c>
@@ -56341,7 +56345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="800" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>4099</v>
       </c>
@@ -56394,7 +56398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="801" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
         <v>4103</v>
       </c>
@@ -56447,7 +56451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="802" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
         <v>4108</v>
       </c>
@@ -56500,7 +56504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="803" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
         <v>4113</v>
       </c>
@@ -56553,7 +56557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="804" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
         <v>4118</v>
       </c>
@@ -56606,7 +56610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="805" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>4123</v>
       </c>
@@ -56659,7 +56663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="806" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
         <v>4128</v>
       </c>
@@ -56712,7 +56716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="807" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
         <v>4133</v>
       </c>
@@ -56765,7 +56769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="808" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>4138</v>
       </c>
@@ -56818,7 +56822,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="809" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>4143</v>
       </c>
@@ -56871,7 +56875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="810" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
         <v>4148</v>
       </c>
@@ -56924,7 +56928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="811" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
         <v>4152</v>
       </c>
@@ -56977,7 +56981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="812" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>4157</v>
       </c>
@@ -57030,7 +57034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="813" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
         <v>4162</v>
       </c>
@@ -57083,7 +57087,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="814" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
         <v>4167</v>
       </c>
@@ -57136,7 +57140,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="815" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
         <v>4171</v>
       </c>
@@ -57189,7 +57193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="816" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>4176</v>
       </c>
@@ -57242,7 +57246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="817" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>4180</v>
       </c>
@@ -57295,7 +57299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="818" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
         <v>4185</v>
       </c>
@@ -57348,7 +57352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="819" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>4190</v>
       </c>
@@ -57401,7 +57405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="820" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>4195</v>
       </c>
@@ -57454,7 +57458,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="821" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
         <v>4199</v>
       </c>
@@ -57507,7 +57511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="822" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>4204</v>
       </c>
@@ -57560,7 +57564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="823" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>4209</v>
       </c>
@@ -57613,7 +57617,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="824" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>4214</v>
       </c>
@@ -57666,7 +57670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="825" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
         <v>4219</v>
       </c>
@@ -57719,7 +57723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="826" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
         <v>4224</v>
       </c>
@@ -57772,7 +57776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="827" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
         <v>4229</v>
       </c>
@@ -57825,7 +57829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="828" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>4234</v>
       </c>
@@ -57878,7 +57882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="829" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
         <v>4238</v>
       </c>
@@ -57931,7 +57935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="830" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
         <v>4243</v>
       </c>
@@ -57984,7 +57988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="831" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
         <v>4250</v>
       </c>
@@ -58037,7 +58041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="832" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>4255</v>
       </c>
@@ -58090,7 +58094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
         <v>4259</v>
       </c>
@@ -58143,7 +58147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
         <v>4266</v>
       </c>
@@ -58196,7 +58200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
         <v>4270</v>
       </c>
@@ -58249,7 +58253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>4277</v>
       </c>
@@ -58302,7 +58306,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
         <v>4282</v>
       </c>
@@ -58355,7 +58359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
         <v>4287</v>
       </c>
@@ -58408,7 +58412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
         <v>4292</v>
       </c>
@@ -58461,7 +58465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
         <v>4297</v>
       </c>
@@ -58514,7 +58518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
         <v>4302</v>
       </c>
@@ -58567,7 +58571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
         <v>4307</v>
       </c>
@@ -58620,7 +58624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A843" s="5" t="s">
         <v>4311</v>
       </c>
@@ -58673,7 +58677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
         <v>4315</v>
       </c>
@@ -58726,7 +58730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
         <v>4320</v>
       </c>
@@ -58779,7 +58783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
         <v>4325</v>
       </c>
@@ -58832,7 +58836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
         <v>4330</v>
       </c>
@@ -58885,7 +58889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
         <v>4334</v>
       </c>
@@ -58938,7 +58942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="849" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
         <v>4338</v>
       </c>
@@ -58991,7 +58995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="850" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
         <v>4342</v>
       </c>
@@ -59044,7 +59048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="851" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
         <v>4349</v>
       </c>
@@ -59097,7 +59101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="852" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A852" s="5" t="s">
         <v>4354</v>
       </c>
@@ -59150,7 +59154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="853" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
         <v>4359</v>
       </c>
@@ -59203,7 +59207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="854" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
         <v>4364</v>
       </c>
@@ -59256,7 +59260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="855" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
         <v>4369</v>
       </c>
@@ -59309,7 +59313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="856" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
         <v>4374</v>
       </c>
@@ -59362,7 +59366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="857" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
         <v>4379</v>
       </c>
@@ -59415,7 +59419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="858" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
         <v>4384</v>
       </c>
@@ -59468,7 +59472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="859" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A859" s="5" t="s">
         <v>4389</v>
       </c>
@@ -59521,7 +59525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="860" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
         <v>4394</v>
       </c>
@@ -59574,7 +59578,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="861" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A861" s="5" t="s">
         <v>4400</v>
       </c>
@@ -59627,7 +59631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="862" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
         <v>4405</v>
       </c>
@@ -59680,7 +59684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="863" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
         <v>4410</v>
       </c>
@@ -59733,7 +59737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="864" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
         <v>4415</v>
       </c>
@@ -59786,7 +59790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="865" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
         <v>4420</v>
       </c>
@@ -59839,7 +59843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="866" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A866" s="5" t="s">
         <v>4424</v>
       </c>
@@ -59892,7 +59896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="867" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A867" s="5" t="s">
         <v>4428</v>
       </c>
@@ -59945,7 +59949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="868" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A868" s="5" t="s">
         <v>4432</v>
       </c>
@@ -59998,7 +60002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="869" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
         <v>4437</v>
       </c>
@@ -60051,7 +60055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="870" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
         <v>4441</v>
       </c>
@@ -60104,7 +60108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="871" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
         <v>4446</v>
       </c>
@@ -60157,7 +60161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="872" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
         <v>4451</v>
       </c>
@@ -60210,7 +60214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="873" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
         <v>4456</v>
       </c>
@@ -60263,7 +60267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="874" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A874" s="5" t="s">
         <v>4460</v>
       </c>
@@ -60316,7 +60320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="875" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
         <v>4464</v>
       </c>
@@ -60369,7 +60373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="876" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A876" s="5" t="s">
         <v>4469</v>
       </c>
@@ -60422,7 +60426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="877" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
         <v>4474</v>
       </c>
@@ -60475,7 +60479,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="878" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A878" s="5" t="s">
         <v>4478</v>
       </c>
@@ -60528,7 +60532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="879" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A879" s="5" t="s">
         <v>4483</v>
       </c>
@@ -60581,7 +60585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="880" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A880" s="5" t="s">
         <v>4488</v>
       </c>
@@ -60634,7 +60638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="881" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A881" s="5" t="s">
         <v>4493</v>
       </c>
@@ -60687,7 +60691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="882" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A882" s="5" t="s">
         <v>4498</v>
       </c>
@@ -60740,7 +60744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="883" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A883" s="5" t="s">
         <v>4503</v>
       </c>
@@ -60793,7 +60797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="884" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
         <v>4508</v>
       </c>
@@ -60846,7 +60850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="885" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A885" s="5" t="s">
         <v>4513</v>
       </c>
@@ -60899,7 +60903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="886" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A886" s="5" t="s">
         <v>4518</v>
       </c>
@@ -60960,7 +60964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -60968,12 +60972,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>4523</v>
       </c>
